--- a/Capturista/zte.xlsx
+++ b/Capturista/zte.xlsx
@@ -5,22 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\Freelancer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph\Documents\sublime-text\Joseph0Adrian.github.io\Capturista\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="1440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20340" windowHeight="1440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="zte-elektra" sheetId="1" r:id="rId1"/>
     <sheet name="zte-coppel" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'zte-coppel'!$A$1:$D$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'zte-elektra'!$A$1:$E$16</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>web-scraper-order</t>
   </si>
@@ -136,20 +140,12 @@
     <t>Movistar ZTE Blade A7 2020 64 GB Azul</t>
   </si>
   <si>
-    <t>$3,699
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-53</t>
   </si>
   <si>
     <t>Telcel ZTE Blade A3 2020 32 GB Rojo</t>
   </si>
   <si>
-    <t>$1,959
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-55</t>
   </si>
   <si>
@@ -168,20 +164,12 @@
     <t>AT&amp;T/Unefon ZTE V2020 Vita 128 GB Azul</t>
   </si>
   <si>
-    <t>$4,999
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-57</t>
   </si>
   <si>
     <t>Telcel ZTE Blade A510 8 GB Dorado</t>
   </si>
   <si>
-    <t>$2,269
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-63</t>
   </si>
   <si>
@@ -194,20 +182,12 @@
     <t>Telcel ZTE Blade Axon 11 128 GB Blanco</t>
   </si>
   <si>
-    <t>$7,999
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-67</t>
   </si>
   <si>
     <t>Telcel ZTE Blade V2020 128 GB Blanco</t>
   </si>
   <si>
-    <t>$6,499
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-61</t>
   </si>
   <si>
@@ -220,10 +200,6 @@
     <t>Telce ZTE Blade L8 32 GB Negro</t>
   </si>
   <si>
-    <t>$1,299
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-64</t>
   </si>
   <si>
@@ -242,20 +218,12 @@
     <t>Telcel ZTE Blade A5 2020 32 GB Azul</t>
   </si>
   <si>
-    <t>$2,499
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-60</t>
   </si>
   <si>
     <t>Telcel ZTE Blade V580 + VR 16 GB Dorado</t>
   </si>
   <si>
-    <t>$3,399
-						 de contado</t>
-  </si>
-  <si>
     <t>1599351403-65</t>
   </si>
   <si>
@@ -272,13 +240,20 @@
   </si>
   <si>
     <t>Telcel ZTE Blade A5 2020 32 GB Verde</t>
+  </si>
+  <si>
+    <t>Celulares zte elektra</t>
+  </si>
+  <si>
+    <t>Celulates zte coppel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
@@ -758,9 +733,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1082,215 +1063,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1799</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1499</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1799</v>
       </c>
       <c r="E3" s="1">
-        <v>2799</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="1">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
         <v>2799</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2499</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1">
-        <v>1978</v>
+        <v>2799</v>
       </c>
       <c r="E5" s="1">
-        <v>999</v>
+        <v>2499</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1978</v>
       </c>
       <c r="E6" s="1">
-        <v>4999</v>
+        <v>999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1978</v>
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" s="1">
-        <v>999</v>
+        <v>4999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1">
-        <v>3799</v>
+        <v>1978</v>
       </c>
       <c r="E8" s="1">
-        <v>3299</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>3078</v>
+        <v>3799</v>
       </c>
       <c r="E9" s="1">
-        <v>1999</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3078</v>
       </c>
       <c r="E10" s="1">
-        <v>2799</v>
+        <v>1999</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>1799</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
@@ -1301,343 +1276,376 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="1">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
         <v>1799</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1499</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1799</v>
       </c>
       <c r="E14" s="1">
-        <v>2799</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="1">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
         <v>2499</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
     <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
+      <c r="A1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
+        <v>37</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3699</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1959</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
         <v>41</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1959</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1959</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B7" t="s">
         <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4999</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="3">
+        <v>2269</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3699</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
         <v>36</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>59</v>
+        <v>51</v>
+      </c>
+      <c r="D10" s="3">
+        <v>7999</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>38</v>
+        <v>53</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6499</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
         <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D12" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3699</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
+        <v>57</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1299</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s">
         <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
+        <v>59</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3699</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" t="s">
-        <v>71</v>
+        <v>61</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1959</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B16" t="s">
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" t="s">
-        <v>74</v>
+        <v>63</v>
+      </c>
+      <c r="D16" s="3">
+        <v>2499</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3399</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
+        <v>67</v>
+      </c>
+      <c r="D18" s="3">
+        <v>4999</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B19" t="s">
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>71</v>
       </c>
+      <c r="D20" s="3">
+        <v>2499</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Capturista/zte.xlsx
+++ b/Capturista/zte.xlsx
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'zte-coppel'!$A$1:$D$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'zte-elektra'!$A$1:$E$16</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -256,7 +256,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +387,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -733,15 +739,23 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="6" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,11 +1085,11 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
-    <col min="3" max="3" width="40.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1353,293 +1367,507 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="51.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="5">
         <v>3699</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="5">
         <v>1959</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="5">
         <v>1959</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="5">
         <v>1959</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="5">
         <v>4999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="5">
         <v>2269</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="5">
         <v>3699</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="5">
         <v>7999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="5">
         <v>6499</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="5">
         <v>3699</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <v>1299</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="5">
         <v>3699</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="5">
         <v>1959</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="5">
         <v>2499</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="5">
         <v>3399</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="5">
         <v>4999</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="5">
         <v>1299</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="5">
         <v>2499</v>
       </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
